--- a/data/outplantMetadata.xlsx
+++ b/data/outplantMetadata.xlsx
@@ -808,6 +808,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,16 +914,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -974,6 +974,64 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,16 +1336,16 @@
   <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="20" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="21"/>
+    <col min="5" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,10 +1369,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="22">
         <v>24.621400000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="22">
         <v>-81.362930000000006</v>
       </c>
     </row>
@@ -1325,10 +1383,10 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="22">
         <v>24.595369999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="22">
         <v>-81.371930000000006</v>
       </c>
     </row>
@@ -1339,10 +1397,10 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="22">
         <v>24.56307</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="22">
         <v>-81.400999999999996</v>
       </c>
     </row>
@@ -1353,10 +1411,10 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="22">
         <v>24.552250000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="22">
         <v>-81.383930000000007</v>
       </c>
     </row>
@@ -1367,10 +1425,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="23">
         <v>24.55245</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="23">
         <v>-81.38409</v>
       </c>
     </row>
@@ -1381,10 +1439,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="23">
         <v>24.53145</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="23">
         <v>-81.483549999999994</v>
       </c>
     </row>
@@ -1395,10 +1453,10 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="23">
         <v>24.52327</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="23">
         <v>-81.515720000000002</v>
       </c>
     </row>
@@ -1409,10 +1467,10 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="23">
         <v>24.552620000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="23">
         <v>-81.381709999999998</v>
       </c>
     </row>
@@ -1423,10 +1481,10 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="24">
         <v>24.55227</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="24">
         <v>-81.383669999999995</v>
       </c>
     </row>
@@ -1437,10 +1495,10 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="24">
         <v>24.531469999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="24">
         <v>-81.483490000000003</v>
       </c>
     </row>
@@ -1451,10 +1509,10 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="24">
         <v>24.552510000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="24">
         <v>-81.384169999999997</v>
       </c>
     </row>
@@ -1465,10 +1523,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="24">
         <v>24.632380000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="24">
         <v>-81.088970000000003</v>
       </c>
     </row>
@@ -1479,10 +1537,10 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="24">
         <v>24.552119999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="24">
         <v>-81.383610000000004</v>
       </c>
     </row>
@@ -1493,10 +1551,10 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="23">
         <v>24.567489999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="23">
         <v>-81.388040000000004</v>
       </c>
     </row>
@@ -1507,10 +1565,10 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="23">
         <v>24.569289999999999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="23">
         <v>-81.382360000000006</v>
       </c>
     </row>
@@ -1521,10 +1579,10 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="23">
         <v>24.552769999999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="23">
         <v>-81.380600000000001</v>
       </c>
     </row>
@@ -1535,10 +1593,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="23">
         <v>24.621400000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="23">
         <v>-81.362930000000006</v>
       </c>
     </row>
@@ -1549,10 +1607,10 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="23">
         <v>24.568169999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="23">
         <v>-81.328670000000002</v>
       </c>
     </row>
@@ -1563,10 +1621,10 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="24">
         <v>24.552510000000002</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="24">
         <v>-81.384069999999994</v>
       </c>
     </row>
@@ -1577,10 +1635,10 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="23">
         <v>24.595359999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="23">
         <v>-81.371930000000006</v>
       </c>
     </row>
@@ -1591,10 +1649,10 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="24">
         <v>24.567489999999999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="24">
         <v>-81.388040000000004</v>
       </c>
     </row>
@@ -1605,10 +1663,10 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="23">
         <v>24.55115</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="23">
         <v>-81.389830000000003</v>
       </c>
     </row>
@@ -1619,10 +1677,10 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="24">
         <v>24.55115</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="24">
         <v>-81.389830000000003</v>
       </c>
     </row>
@@ -1633,10 +1691,10 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="23">
         <v>24.551780000000001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="23">
         <v>-81.386480000000006</v>
       </c>
     </row>
@@ -1647,10 +1705,10 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="23">
         <v>24.55264</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="23">
         <v>-81.382350000000002</v>
       </c>
     </row>
@@ -1661,10 +1719,10 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="24">
         <v>24.552510000000002</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="24">
         <v>-81.384069999999994</v>
       </c>
     </row>
@@ -1675,10 +1733,10 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="24">
         <v>24.595359999999999</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="24">
         <v>-81.371930000000006</v>
       </c>
     </row>
@@ -1689,10 +1747,10 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="23">
         <v>24.552900000000001</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="23">
         <v>-81.38015</v>
       </c>
     </row>
@@ -1703,10 +1761,10 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="23">
         <v>24.522919999999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="23">
         <v>-81.516829999999999</v>
       </c>
     </row>
@@ -1717,10 +1775,10 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="23">
         <v>24.567599999999999</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="23">
         <v>-81.329769999999996</v>
       </c>
     </row>
@@ -1731,10 +1789,10 @@
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="24">
         <v>24.621400000000001</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="24">
         <v>-81.362930000000006</v>
       </c>
     </row>
@@ -1745,10 +1803,10 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="23">
         <v>24.451750000000001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="23">
         <v>-81.878910000000005</v>
       </c>
     </row>
@@ -1759,10 +1817,10 @@
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="24">
         <v>24.552669999999999</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="24">
         <v>-81.382270000000005</v>
       </c>
     </row>
@@ -1773,10 +1831,10 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="24">
         <v>24.538399999999999</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="24">
         <v>-81.453379999999996</v>
       </c>
     </row>
@@ -1787,10 +1845,10 @@
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="23">
         <v>24.451650000000001</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="23">
         <v>-81.878349999999998</v>
       </c>
     </row>
@@ -1801,10 +1859,10 @@
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="23">
         <v>24.523040000000002</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="23">
         <v>-81.517529999999994</v>
       </c>
     </row>
@@ -1815,10 +1873,10 @@
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="23">
         <v>24.454609999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="23">
         <v>-81.859350000000006</v>
       </c>
     </row>
@@ -1829,10 +1887,10 @@
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="24">
         <v>24.552790000000002</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="24">
         <v>-81.382320000000007</v>
       </c>
     </row>
@@ -1843,10 +1901,10 @@
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="23">
         <v>24.459099999999999</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="23">
         <v>-81.844329999999999</v>
       </c>
     </row>
@@ -1857,10 +1915,10 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="23">
         <v>24.538399999999999</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="23">
         <v>-81.453500000000005</v>
       </c>
     </row>
@@ -1871,10 +1929,10 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="23">
         <v>24.553180000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="23">
         <v>-81.379419999999996</v>
       </c>
     </row>
@@ -1885,10 +1943,10 @@
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="23">
         <v>24.45928</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="23">
         <v>-81.843860000000006</v>
       </c>
     </row>
@@ -1899,10 +1957,10 @@
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="23">
         <v>24.454470000000001</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="23">
         <v>-81.859120000000004</v>
       </c>
     </row>
@@ -1913,10 +1971,10 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="23">
         <v>24.52272</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="23">
         <v>-81.517269999999996</v>
       </c>
     </row>
@@ -1927,10 +1985,10 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="23">
         <v>24.53848</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="23">
         <v>-81.452870000000004</v>
       </c>
     </row>
@@ -1941,10 +1999,10 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="24">
         <v>24.552859999999999</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="24">
         <v>-81.382189999999994</v>
       </c>
     </row>
@@ -1955,10 +2013,10 @@
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="23">
         <v>24.551780000000001</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="23">
         <v>-81.386480000000006</v>
       </c>
     </row>
@@ -1969,10 +2027,10 @@
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="23">
         <v>24.45168</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="23">
         <v>-81.878290000000007</v>
       </c>
     </row>
@@ -1983,10 +2041,10 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="23">
         <v>24.52646</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="23">
         <v>-81.504419999999996</v>
       </c>
     </row>
@@ -1997,10 +2055,10 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="23">
         <v>24.454329999999999</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="23">
         <v>-81.85763</v>
       </c>
     </row>
@@ -2011,1998 +2069,1998 @@
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="23">
         <v>24.45889</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="23">
         <v>-81.844989999999996</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="25">
         <v>24.546669999999999</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="25">
         <v>-81.402140000000003</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="25">
         <v>24.589079999999999</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="25">
         <v>-81.24203</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="25">
         <v>24.568670000000001</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="25">
         <v>-81.326549999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="25">
         <v>24.49305</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="25">
         <v>-81.659610000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="25">
         <v>24.482679999999998</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="25">
         <v>-81.703339999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="25">
         <v>24.53051</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="25">
         <v>-81.487340000000003</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="25">
         <v>24.510359999999999</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="25">
         <v>-81.569909999999993</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="25">
         <v>24.459479999999999</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="25">
         <v>-81.844120000000004</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="25">
         <v>24.474080000000001</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="25">
         <v>-81.742599999999996</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="26">
         <v>24.54646</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="26">
         <v>-81.401910000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="26">
         <v>24.455079999999999</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="26">
         <v>-81.856449999999995</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="26">
         <v>24.45176</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="26">
         <v>-81.878159999999994</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="26">
         <v>24.522929999999999</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="26">
         <v>-81.518609999999995</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="26">
         <v>24.45872</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="26">
         <v>-81.845320000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="26">
         <v>24.538530000000002</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="26">
         <v>-81.451999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="25">
         <v>24.553000000000001</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="25">
         <v>-81.382279999999994</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="25">
         <v>24.54646</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="25">
         <v>-81.401910000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="25">
         <v>24.522929999999999</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="25">
         <v>-81.518609999999995</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="25">
         <v>24.538530000000002</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="25">
         <v>-81.451999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="25">
         <v>24.45176</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="25">
         <v>-81.878159999999994</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="25">
         <v>24.45872</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="25">
         <v>-81.845320000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="25">
         <v>24.455079999999999</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="25">
         <v>-81.856449999999995</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="25">
         <v>24.452300000000001</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="25">
         <v>-81.876360000000005</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="25">
         <v>24.522950000000002</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="25">
         <v>-81.519000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="25">
         <v>24.459289999999999</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="25">
         <v>-81.844570000000004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="25">
         <v>24.551780000000001</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="25">
         <v>-81.386480000000006</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="25">
         <v>24.454750000000001</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="25">
         <v>-81.856520000000003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="25">
         <v>24.55245</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="25">
         <v>-81.38409</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="25">
         <v>24.552900000000001</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="25">
         <v>-81.38015</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="25">
         <v>24.538399999999999</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="25">
         <v>-81.453500000000005</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="25">
         <v>24.452380000000002</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="25">
         <v>-81.876469999999998</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="25">
         <v>24.459289999999999</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="25">
         <v>-81.845020000000005</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="25">
         <v>24.522490000000001</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="25">
         <v>-81.519509999999997</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="27">
         <v>24.552350000000001</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="27">
         <v>-81.383870000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="25">
         <v>24.454809999999998</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="25">
         <v>-81.856610000000003</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="27">
         <v>24.552959999999999</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="27">
         <v>-81.379769999999994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="27">
         <v>24.473949999999999</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="27">
         <v>-81.742570000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="27">
         <v>24.530550000000002</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="27">
         <v>-81.487809999999996</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="28">
         <v>24.538319999999999</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="28">
         <v>-81.453739999999996</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="28">
         <v>24.53819</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="28">
         <v>-81.454440000000005</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="27">
         <v>24.454709999999999</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="27">
         <v>-81.856809999999996</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="28">
         <v>24.563140000000001</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="28">
         <v>-81.400170000000003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="28">
         <v>24.551850000000002</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="28">
         <v>-81.386470000000003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="27">
         <v>24.553180000000001</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="27">
         <v>-81.379360000000005</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="28">
         <v>24.622209999999999</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="28">
         <v>-81.362809999999996</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="29">
         <v>24.595359999999999</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="29">
         <v>-81.371930000000006</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="27">
         <v>24.540179999999999</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="27">
         <v>-81.448430000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="27">
         <v>24.530539999999998</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="27">
         <v>-81.488060000000004</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="27">
         <v>24.52252</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="27">
         <v>-81.519779999999997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="28">
         <v>24.52252</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="28">
         <v>-81.519779999999997</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="28">
         <v>24.553270000000001</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="28">
         <v>-81.382300000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="28">
         <v>24.45233</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="28">
         <v>-81.875979999999998</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="28">
         <v>24.530349999999999</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="28">
         <v>-81.488290000000006</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="29">
         <v>24.53867</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="29">
         <v>-81.457639999999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="29">
         <v>24.55256</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="29">
         <v>-81.383949999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="29">
         <v>24.45862</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="29">
         <v>-81.845690000000005</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="29">
         <v>24.522629999999999</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="29">
         <v>-81.519800000000004</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="29">
         <v>24.45504</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="29">
         <v>-81.856160000000003</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="29">
         <v>24.474060000000001</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="29">
         <v>-81.742000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="29">
         <v>24.530550000000002</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="29">
         <v>-81.487229999999997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="29">
         <v>24.552620000000001</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="29">
         <v>-81.381709999999998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="29">
         <v>24.546410000000002</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="29">
         <v>-81.402749999999997</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="29">
         <v>24.452259999999999</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="29">
         <v>-81.875730000000004</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="30">
         <v>24.522819999999999</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="30">
         <v>-81.517110000000002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="30">
         <v>24.556830000000001</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="30">
         <v>-81.360230000000001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="30">
         <v>24.477239999999998</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="30">
         <v>-81.731160000000003</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="30">
         <v>24.552610000000001</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="30">
         <v>-81.381780000000006</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="30">
         <v>24.541260000000001</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="30">
         <v>-81.440700000000007</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="30">
         <v>24.52646</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="30">
         <v>-81.504419999999996</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="31">
         <v>24.52646</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="31">
         <v>-81.504419999999996</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="30">
         <v>24.52242</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="30">
         <v>-81.520269999999996</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="30">
         <v>24.552479999999999</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="30">
         <v>-81.38212</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="30">
         <v>24.530609999999999</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="30">
         <v>-81.486810000000006</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="30">
         <v>24.52619</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="30">
         <v>-81.504260000000002</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="31">
         <v>24.52619</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="31">
         <v>-81.504260000000002</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="30">
         <v>24.541229999999999</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="30">
         <v>-81.442019999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="30">
         <v>24.52646</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="30">
         <v>-81.504419999999996</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="32">
         <v>24.459129999999998</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="32">
         <v>-81.845339999999993</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="32">
         <v>24.455120000000001</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="32">
         <v>-81.856049999999996</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="32">
         <v>24.452500000000001</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="32">
         <v>-81.876140000000007</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="33">
         <v>24.546479999999999</v>
       </c>
-      <c r="D135" s="13">
+      <c r="D135" s="33">
         <v>-81.402140000000003</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="33">
         <v>24.53077</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D136" s="33">
         <v>-81.486590000000007</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="33">
         <v>24.552320000000002</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D137" s="33">
         <v>-81.382230000000007</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="32">
         <v>24.552820000000001</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="32">
         <v>-81.380420000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="29">
         <v>24.477219999999999</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="29">
         <v>-81.731380000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="33">
         <v>24.459129999999998</v>
       </c>
-      <c r="D140" s="13">
+      <c r="D140" s="33">
         <v>-81.845830000000007</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="29">
         <v>24.474039999999999</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="29">
         <v>-81.742339999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="32">
         <v>24.526489999999999</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="32">
         <v>-81.501270000000005</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="29">
         <v>24.452570000000001</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="29">
         <v>-81.875339999999994</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="32">
         <v>24.53979</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="32">
         <v>-81.449299999999994</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="29">
         <v>24.533300000000001</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="29">
         <v>-81.470089999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="33">
         <v>24.454940000000001</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D146" s="33">
         <v>-81.855850000000004</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="29">
         <v>24.471489999999999</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="29">
         <v>-81.76455</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="29">
         <v>24.526589999999999</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="29">
         <v>-81.501050000000006</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="29">
         <v>24.551279999999998</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="29">
         <v>-81.389920000000004</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="33">
         <v>24.477589999999999</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="33">
         <v>-81.731650000000002</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="14">
+      <c r="C151" s="34">
         <v>24.533270000000002</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="34">
         <v>-81.469669999999994</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="32">
         <v>24.522749999999998</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="32">
         <v>-81.520030000000006</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="33">
         <v>24.45168</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="33">
         <v>-81.886170000000007</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="14">
+      <c r="C154" s="34">
         <v>24.452549999999999</v>
       </c>
-      <c r="D154" s="14">
+      <c r="D154" s="34">
         <v>-81.875559999999993</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="33">
         <v>24.518540000000002</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="33">
         <v>-81.540610000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="32">
         <v>24.45889</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="32">
         <v>-81.846019999999996</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="34">
         <v>24.53021</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="34">
         <v>-81.488640000000004</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="15">
+      <c r="C158" s="35">
         <v>24.539180000000002</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="35">
         <v>-81.450490000000002</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="15">
+      <c r="C159" s="35">
         <v>24.473050000000001</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="35">
         <v>-81.745530000000002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="34">
         <v>24.55087</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="34">
         <v>-81.389619999999994</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="32">
         <v>24.526509999999998</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="32">
         <v>-81.50018</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="34">
         <v>24.526070000000001</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="34">
         <v>-81.502939999999995</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="34">
         <v>24.477319999999999</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="34">
         <v>-81.730999999999995</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="34">
         <v>24.53332</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="34">
         <v>-81.469130000000007</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="33">
         <v>24.45158</v>
       </c>
-      <c r="D165" s="13">
+      <c r="D165" s="33">
         <v>-81.885769999999994</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="13">
+      <c r="C166" s="33">
         <v>24.444579999999998</v>
       </c>
-      <c r="D166" s="13">
+      <c r="D166" s="33">
         <v>-81.928150000000002</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="32">
         <v>24.5274</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="32">
         <v>-81.49897</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="32">
         <v>24.53116</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="32">
         <v>-81.484549999999999</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="32">
         <v>24.54045</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="32">
         <v>-81.445419999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="32">
         <v>24.55321</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="32">
         <v>-81.379080000000002</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="33">
         <v>24.53398</v>
       </c>
-      <c r="D171" s="13">
+      <c r="D171" s="33">
         <v>-81.478009999999998</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="13">
+      <c r="C172" s="33">
         <v>24.45157</v>
       </c>
-      <c r="D172" s="13">
+      <c r="D172" s="33">
         <v>-81.885480000000001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="13">
+      <c r="C173" s="33">
         <v>24.444669999999999</v>
       </c>
-      <c r="D173" s="13">
+      <c r="D173" s="33">
         <v>-81.926910000000007</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="15">
+      <c r="C174" s="35">
         <v>24.541070000000001</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="35">
         <v>-81.43526</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="32">
         <v>24.540929999999999</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="32">
         <v>-81.435389999999998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="13">
+      <c r="C176" s="33">
         <v>24.541119999999999</v>
       </c>
-      <c r="D176" s="13">
+      <c r="D176" s="33">
         <v>-81.434839999999994</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="33">
         <v>24.517959999999999</v>
       </c>
-      <c r="D177" s="13">
+      <c r="D177" s="33">
         <v>-81.542259999999999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="32">
         <v>24.452359999999999</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="32">
         <v>-81.875110000000006</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="25">
         <v>24.521979999999999</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="25">
         <v>-81.521150000000006</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="13">
+      <c r="C180" s="33">
         <v>24.45477</v>
       </c>
-      <c r="D180" s="13">
+      <c r="D180" s="33">
         <v>-81.856380000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="25">
         <v>24.53424</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="25">
         <v>-81.469989999999996</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="32">
         <v>24.480090000000001</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="32">
         <v>-81.713229999999996</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="25">
         <v>24.510729999999999</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="25">
         <v>-81.569429999999997</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="25">
         <v>24.52796</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="25">
         <v>-81.494709999999998</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="25">
         <v>24.45252</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="25">
         <v>-81.874960000000002</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="25">
         <v>24.530010000000001</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="25">
         <v>-81.487889999999993</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="16">
+      <c r="C187" s="36">
         <v>24.458919999999999</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="36">
         <v>-81.844089999999994</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="25">
         <v>24.520389999999999</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="25">
         <v>-81.540559999999999</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="16">
+      <c r="C189" s="36">
         <v>24.459150000000001</v>
       </c>
-      <c r="D189" s="16">
+      <c r="D189" s="36">
         <v>-81.843109999999996</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="16">
+      <c r="C190" s="36">
         <v>24.459589999999999</v>
       </c>
-      <c r="D190" s="16">
+      <c r="D190" s="36">
         <v>-81.843729999999994</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="25">
         <v>24.51483</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="25">
         <v>-81.552700000000002</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="37">
         <v>24.534079999999999</v>
       </c>
-      <c r="D192" s="17">
+      <c r="D192" s="37">
         <v>-81.472639999999998</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="25">
         <v>24.528230000000001</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="25">
         <v>-81.495480000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="25">
         <v>24.517679999999999</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="25">
         <v>-81.544120000000007</v>
       </c>
     </row>
@@ -4013,10 +4071,10 @@
       <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="23">
         <v>24.563140000000001</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="23">
         <v>-81.400170000000003</v>
       </c>
     </row>
@@ -4027,161 +4085,162 @@
       <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="23">
         <v>24.595359999999999</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="23">
         <v>-81.371930000000006</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="25">
         <v>24.54175</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="25">
         <v>-81.433859999999996</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="25">
         <v>24.471800000000002</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="25">
         <v>-81.764380000000003</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="18">
+      <c r="C199" s="38">
         <v>24.451080000000001</v>
       </c>
-      <c r="D199" s="18">
+      <c r="D199" s="38">
         <v>-81.888030000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="18">
+      <c r="C200" s="38">
         <v>24.524840000000001</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="38">
         <v>-81.506860000000003</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="19" t="s">
+      <c r="A201" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B201" s="19" t="s">
+      <c r="B201" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="19">
+      <c r="C201" s="39">
         <v>24.540469999999999</v>
       </c>
-      <c r="D201" s="19">
+      <c r="D201" s="39">
         <v>-81.444649999999996</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="19" t="s">
+      <c r="A202" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="19">
+      <c r="C202" s="39">
         <v>24.531089999999999</v>
       </c>
-      <c r="D202" s="19">
+      <c r="D202" s="39">
         <v>-81.485020000000006</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="19" t="s">
+      <c r="A203" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="19">
+      <c r="C203" s="39">
         <v>24.527570000000001</v>
       </c>
-      <c r="D203" s="19">
+      <c r="D203" s="39">
         <v>-81.498429999999999</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="20" t="s">
+      <c r="A204" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B204" s="20" t="s">
+      <c r="B204" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="20">
+      <c r="C204" s="40">
         <v>24.44463</v>
       </c>
-      <c r="D204" s="20">
+      <c r="D204" s="40">
         <v>-81.926630000000003</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="20" t="s">
+      <c r="A205" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B205" s="20" t="s">
+      <c r="B205" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="20">
+      <c r="C205" s="40">
         <v>24.524999999999999</v>
       </c>
-      <c r="D205" s="20">
+      <c r="D205" s="40">
         <v>-81.507009999999994</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B206" s="20" t="s">
+      <c r="B206" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="20">
+      <c r="C206" s="40">
         <v>24.458870000000001</v>
       </c>
-      <c r="D206" s="20">
+      <c r="D206" s="40">
         <v>-81.843720000000005</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="20"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
